--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/066_JsonColumnFiltering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/066_JsonColumnFiltering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="R21a757a594df4872"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="R46de85c08510417b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/066_JsonColumnFiltering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/066_JsonColumnFiltering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="R46de85c08510417b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="R080b39a315e1491d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/066_JsonColumnFiltering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/066_JsonColumnFiltering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="R080b39a315e1491d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="Rcde928cb579f4ef6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/066_JsonColumnFiltering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/066_JsonColumnFiltering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="Rcde928cb579f4ef6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="R10a06567b88c4b1c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/066_JsonColumnFiltering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/066_JsonColumnFiltering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="R10a06567b88c4b1c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="R39951991045d45e5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/066_JsonColumnFiltering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/066_JsonColumnFiltering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="R39951991045d45e5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="R64cc25cb8b084ea0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/066_JsonColumnFiltering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/066_JsonColumnFiltering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="R64cc25cb8b084ea0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="R653284f1c7804e8d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/066_JsonColumnFiltering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/066_JsonColumnFiltering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="R653284f1c7804e8d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="Ra27d34548cd148a2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/066_JsonColumnFiltering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/066_JsonColumnFiltering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="Ra27d34548cd148a2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="R05d89348a3f34355"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/066_JsonColumnFiltering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/066_JsonColumnFiltering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="R05d89348a3f34355"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="R884c19d71cdd414b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/066_JsonColumnFiltering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/066_JsonColumnFiltering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="R884c19d71cdd414b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="Rdc565ca0fc1540ec"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,17 +30,17 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/066_JsonColumnFiltering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/066_JsonColumnFiltering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="Rdc565ca0fc1540ec"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="Red7abc1f1f9440e8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,17 +30,17 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/066_JsonColumnFiltering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/066_JsonColumnFiltering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="Red7abc1f1f9440e8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders Filtered" sheetId="1" r:id="R5236153ff7744025"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
